--- a/BLEU/EN-Dictionary/ML詞彙表.xlsx
+++ b/BLEU/EN-Dictionary/ML詞彙表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\extract_raw-data\EN-Dictionary\Training Set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\extract_raw-data\BLEU\EN-Dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD5D6B8-DAB2-473D-A6F2-B77EA58B64D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166CD49D-7A37-47CA-AFEA-C5BA290691B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="454">
   <si>
     <t>八萬四千法門</t>
   </si>
@@ -1395,6 +1395,9 @@
   <si>
     <t>ZH-TW</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure Translation</t>
   </si>
 </sst>
 </file>
@@ -1737,25 +1740,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B258"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="37.69921875" customWidth="1"/>
+    <col min="3" max="3" width="36.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>452</v>
       </c>
       <c r="B1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1771,7 +1780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +1788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1787,7 +1796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1803,7 +1812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1811,7 +1820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1819,7 +1828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1827,7 +1836,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1835,7 +1844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1843,7 +1852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1851,7 +1860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1867,7 +1876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
